--- a/dados/TabelaBrasileirao.xlsx
+++ b/dados/TabelaBrasileirao.xlsx
@@ -481,26 +481,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -509,26 +509,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -584,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -612,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -621,17 +621,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -649,26 +649,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Ceará</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -677,26 +677,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Botafogo</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
@@ -705,26 +705,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ceará</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
+        <v>7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -761,26 +761,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -789,26 +789,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="14">
@@ -817,14 +817,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -833,10 +833,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15">
@@ -845,7 +845,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -855,16 +855,16 @@
         <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="16">
@@ -873,11 +873,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -886,13 +886,13 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -901,26 +901,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vitória</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -957,26 +957,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Vitória</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20">
@@ -992,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="21">
@@ -1020,7 +1020,7 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1029,10 +1029,10 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
     </row>
   </sheetData>

--- a/dados/TabelaBrasileirao.xlsx
+++ b/dados/TabelaBrasileirao.xlsx
@@ -509,26 +509,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
       </c>
       <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -537,26 +537,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -733,7 +733,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -743,16 +743,16 @@
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -761,23 +761,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Botafogo</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -789,7 +789,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -808,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -817,11 +817,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="n">
         <v>7</v>
@@ -830,13 +830,13 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="15">
@@ -845,14 +845,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -861,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16">
@@ -873,26 +873,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="17">
@@ -901,7 +901,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -929,26 +929,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
